--- a/数值/J_界面.xlsx
+++ b/数值/J_界面.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>名称</t>
   </si>
@@ -126,6 +126,17 @@
   </si>
   <si>
     <t>主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TipGMCommand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Main/TipGMCommand</t>
+  </si>
+  <si>
+    <t>GM命令弹窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,6 +641,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数值/J_界面.xlsx
+++ b/数值/J_界面.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>名称</t>
   </si>
@@ -138,6 +138,41 @@
   <si>
     <t>GM命令弹窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Common/UIFull</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>加载参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/RoleInfo/UIRoleInfo</t>
+  </si>
+  <si>
+    <t>UIRoleInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TipSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Common/TipBig</t>
+  </si>
+  <si>
+    <t>UI/Main/TipSetting</t>
   </si>
 </sst>
 </file>
@@ -491,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,9 +536,10 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -514,10 +550,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -528,10 +567,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -542,10 +584,13 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -559,10 +604,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -575,11 +623,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -593,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -606,11 +654,11 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -623,11 +671,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -641,7 +689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -653,6 +701,43 @@
       </c>
       <c r="D10" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/数值/J_界面.xlsx
+++ b/数值/J_界面.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t_ui" sheetId="5" r:id="rId1"/>
+    <sheet name="t_ui_pad" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>名称</t>
   </si>
@@ -80,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isfull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +170,22 @@
   </si>
   <si>
     <t>UI/Main/TipSetting</t>
+  </si>
+  <si>
+    <t>is_full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pad_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pad版路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Common/UIFull_pad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -550,10 +565,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -570,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -587,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -604,10 +619,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -646,13 +661,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -663,13 +678,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -680,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -694,13 +709,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -708,16 +723,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -728,16 +743,90 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
-        <v>43</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
